--- a/Assignment 1/Table_2.xlsx
+++ b/Assignment 1/Table_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phoebelu/Documents/UCLA/WQ2022/EPI207/EPIDEM207-2022-winter/Assignment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BCCC7A-6D67-1F4B-9BE9-CB64F319D35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFC48B0-29F5-794A-8E7D-3C674A1C0784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14860" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="33">
   <si>
     <t>The LOGISTIC Procedure</t>
   </si>
@@ -43,40 +43,34 @@
     <t>p-Value</t>
   </si>
   <si>
-    <t>MS 1 vs 0</t>
+    <t>Sarcopenia</t>
   </si>
   <si>
     <t>&lt;.0001</t>
   </si>
   <si>
-    <t>MS  1 vs 0</t>
+    <t>Sarcopenia 1 vs 0</t>
   </si>
   <si>
     <t>Age</t>
   </si>
   <si>
-    <t>Sex 2 vs 1</t>
-  </si>
-  <si>
-    <t>MS      1 vs 0</t>
-  </si>
-  <si>
-    <t>Sex     2 vs 1</t>
-  </si>
-  <si>
-    <t>Obesity 1 vs 0</t>
-  </si>
-  <si>
-    <t>HT      1 vs 0</t>
-  </si>
-  <si>
-    <t>DM      1 vs 0</t>
-  </si>
-  <si>
-    <t>DysL    1 vs 0</t>
-  </si>
-  <si>
-    <t>MS             1 vs 0</t>
+    <t>Sex        2 vs 1</t>
+  </si>
+  <si>
+    <t>Obesity    1 vs 0</t>
+  </si>
+  <si>
+    <t>HT         1 vs 0</t>
+  </si>
+  <si>
+    <t>DM         1 vs 0</t>
+  </si>
+  <si>
+    <t>DysL       1 vs 0</t>
+  </si>
+  <si>
+    <t>Sarcopenia     1 vs 0</t>
   </si>
   <si>
     <t>Sex            2 vs 1</t>
@@ -103,6 +97,12 @@
     <t>CRP</t>
   </si>
   <si>
+    <t>Metabolic Syndrome OR</t>
+  </si>
+  <si>
+    <t>Odds Ratio</t>
+  </si>
+  <si>
     <t>Crude</t>
   </si>
   <si>
@@ -119,12 +119,6 @@
   </si>
   <si>
     <t>Model 5</t>
-  </si>
-  <si>
-    <t>Metabolic Syndrome OR</t>
-  </si>
-  <si>
-    <t>Odds Ratio</t>
   </si>
 </sst>
 </file>
@@ -147,7 +141,6 @@
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9.5"/>
@@ -156,7 +149,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="9.5"/>
+      <color rgb="FF112277"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -187,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -229,7 +224,72 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color rgb="FFB0B7BB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB0B7BB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB0B7BB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB0B7BB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB0B7BB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFB0B7BB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB0B7BB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB0B7BB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB0B7BB"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFB0B7BB"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FFB0B7BB"/>
       </bottom>
       <diagonal/>
@@ -238,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -270,10 +330,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,7 +492,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="H3:L10"/>
+      <selection activeCell="H4" sqref="H4:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -441,12 +522,8 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="J3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:12" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -463,18 +540,15 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -485,7 +559,7 @@
         <v>5.306</v>
       </c>
       <c r="D5" s="5">
-        <v>4.6559999999999997</v>
+        <v>4.657</v>
       </c>
       <c r="E5" s="5">
         <v>6.0460000000000003</v>
@@ -493,36 +567,32 @@
       <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I6" s="14">
         <v>5.306</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J6" s="15">
         <v>4.6559999999999997</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K6" s="15">
         <v>6.0460000000000003</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="5">
-        <v>4.476</v>
-      </c>
-      <c r="J6" s="5">
-        <v>3.911</v>
-      </c>
-      <c r="K6" s="5">
-        <v>5.1230000000000002</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -535,34 +605,34 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4.4130000000000003</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3.8460000000000001</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5.0629999999999997</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="5">
-        <v>2.35</v>
-      </c>
-      <c r="J7" s="5">
-        <v>2.036</v>
-      </c>
-      <c r="K7" s="5">
-        <v>2.7120000000000002</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H8" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" s="5">
-        <v>2.177</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="J8" s="5">
-        <v>1.7949999999999999</v>
+        <v>1.9510000000000001</v>
       </c>
       <c r="K8" s="5">
-        <v>2.64</v>
+        <v>2.6059999999999999</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>8</v>
@@ -577,17 +647,17 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="H9" s="10" t="s">
-        <v>31</v>
+      <c r="H9" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="I9" s="5">
-        <v>2.1800000000000002</v>
+        <v>2.3250000000000002</v>
       </c>
       <c r="J9" s="5">
-        <v>1.7969999999999999</v>
+        <v>1.903</v>
       </c>
       <c r="K9" s="5">
-        <v>2.6440000000000001</v>
+        <v>2.84</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>8</v>
@@ -610,17 +680,17 @@
       <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>32</v>
+      <c r="H10" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="I10" s="5">
-        <v>2.1309999999999998</v>
+        <v>2.3279999999999998</v>
       </c>
       <c r="J10" s="5">
-        <v>1.756</v>
+        <v>1.905</v>
       </c>
       <c r="K10" s="5">
-        <v>2.5859999999999999</v>
+        <v>2.8439999999999999</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>8</v>
@@ -634,15 +704,30 @@
         <v>1</v>
       </c>
       <c r="C11" s="5">
-        <v>4.476</v>
+        <v>4.4130000000000003</v>
       </c>
       <c r="D11" s="5">
-        <v>3.911</v>
+        <v>3.8460000000000001</v>
       </c>
       <c r="E11" s="5">
-        <v>5.1230000000000002</v>
+        <v>5.0629999999999997</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2.2690000000000001</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1.8560000000000001</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2.774</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -654,13 +739,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="5">
-        <v>1.022</v>
+        <v>1.0469999999999999</v>
       </c>
       <c r="D12" s="5">
-        <v>1.0169999999999999</v>
+        <v>1.0429999999999999</v>
       </c>
       <c r="E12" s="5">
-        <v>1.0269999999999999</v>
+        <v>1.0509999999999999</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>8</v>
@@ -674,13 +759,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="5">
-        <v>0.437</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="D13" s="5">
-        <v>0.379</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="E13" s="5">
-        <v>0.505</v>
+        <v>0.877</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>8</v>
@@ -726,19 +811,19 @@
     </row>
     <row r="19" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
       <c r="C19" s="5">
-        <v>2.35</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="D19" s="5">
-        <v>2.036</v>
+        <v>1.9510000000000001</v>
       </c>
       <c r="E19" s="5">
-        <v>2.7120000000000002</v>
+        <v>2.6059999999999999</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>8</v>
@@ -752,13 +837,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="5">
-        <v>1.0289999999999999</v>
+        <v>1.0509999999999999</v>
       </c>
       <c r="D20" s="5">
-        <v>1.0229999999999999</v>
+        <v>1.0469999999999999</v>
       </c>
       <c r="E20" s="5">
-        <v>1.034</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>8</v>
@@ -766,39 +851,39 @@
     </row>
     <row r="21" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
       </c>
       <c r="C21" s="5">
-        <v>0.63400000000000001</v>
+        <v>1.069</v>
       </c>
       <c r="D21" s="5">
-        <v>0.54300000000000004</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="E21" s="5">
-        <v>0.74</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>8</v>
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.2175</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
       </c>
       <c r="C22" s="5">
-        <v>10.907</v>
+        <v>4.8559999999999999</v>
       </c>
       <c r="D22" s="5">
-        <v>9.1</v>
+        <v>4.3620000000000001</v>
       </c>
       <c r="E22" s="5">
-        <v>13.071</v>
+        <v>5.4059999999999997</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>8</v>
@@ -844,19 +929,19 @@
     </row>
     <row r="28" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
       </c>
       <c r="C28" s="5">
-        <v>2.177</v>
+        <v>2.3250000000000002</v>
       </c>
       <c r="D28" s="5">
-        <v>1.7949999999999999</v>
+        <v>1.903</v>
       </c>
       <c r="E28" s="5">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>8</v>
@@ -870,13 +955,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="5">
-        <v>1.026</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="D29" s="5">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E29" s="5">
-        <v>1.032</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>8</v>
@@ -884,19 +969,19 @@
     </row>
     <row r="30" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30" s="5">
-        <v>0.66500000000000004</v>
+        <v>2.1640000000000001</v>
       </c>
       <c r="D30" s="5">
-        <v>0.56799999999999995</v>
+        <v>1.8660000000000001</v>
       </c>
       <c r="E30" s="5">
-        <v>0.77900000000000003</v>
+        <v>2.5089999999999999</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>8</v>
@@ -904,19 +989,19 @@
     </row>
     <row r="31" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
       </c>
       <c r="C31" s="5">
-        <v>10.548999999999999</v>
+        <v>3.6629999999999998</v>
       </c>
       <c r="D31" s="5">
-        <v>8.7910000000000004</v>
+        <v>3.17</v>
       </c>
       <c r="E31" s="5">
-        <v>12.66</v>
+        <v>4.2329999999999997</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>8</v>
@@ -924,62 +1009,62 @@
     </row>
     <row r="32" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
       </c>
       <c r="C32" s="5">
-        <v>1.3460000000000001</v>
+        <v>6.2789999999999999</v>
       </c>
       <c r="D32" s="5">
-        <v>1.1559999999999999</v>
+        <v>5.4560000000000004</v>
       </c>
       <c r="E32" s="5">
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1E-4</v>
+        <v>7.2249999999999996</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
       </c>
       <c r="C33" s="5">
-        <v>1.006</v>
+        <v>10.004</v>
       </c>
       <c r="D33" s="5">
-        <v>0.82399999999999995</v>
+        <v>8.1679999999999993</v>
       </c>
       <c r="E33" s="5">
-        <v>1.23</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0.94969999999999999</v>
+        <v>12.253</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
       </c>
       <c r="C34" s="5">
-        <v>0.95799999999999996</v>
+        <v>54.383000000000003</v>
       </c>
       <c r="D34" s="5">
-        <v>0.80500000000000005</v>
+        <v>43.52</v>
       </c>
       <c r="E34" s="5">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0.62919999999999998</v>
+        <v>67.956999999999994</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -1022,19 +1107,19 @@
     </row>
     <row r="40" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
       </c>
       <c r="C40" s="5">
-        <v>2.1800000000000002</v>
+        <v>2.3279999999999998</v>
       </c>
       <c r="D40" s="5">
-        <v>1.7969999999999999</v>
+        <v>1.905</v>
       </c>
       <c r="E40" s="5">
-        <v>2.6440000000000001</v>
+        <v>2.8439999999999999</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>8</v>
@@ -1048,13 +1133,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="5">
-        <v>1.0249999999999999</v>
+        <v>1.016</v>
       </c>
       <c r="D41" s="5">
-        <v>1.0189999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="E41" s="5">
-        <v>1.0309999999999999</v>
+        <v>1.022</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>8</v>
@@ -1062,19 +1147,19 @@
     </row>
     <row r="42" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
       </c>
       <c r="C42" s="5">
-        <v>0.60199999999999998</v>
+        <v>2.2069999999999999</v>
       </c>
       <c r="D42" s="5">
-        <v>0.50700000000000001</v>
+        <v>1.87</v>
       </c>
       <c r="E42" s="5">
-        <v>0.71599999999999997</v>
+        <v>2.605</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>8</v>
@@ -1082,19 +1167,19 @@
     </row>
     <row r="43" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
       </c>
       <c r="C43" s="5">
-        <v>10.558999999999999</v>
+        <v>3.665</v>
       </c>
       <c r="D43" s="5">
-        <v>8.798</v>
+        <v>3.1709999999999998</v>
       </c>
       <c r="E43" s="5">
-        <v>12.670999999999999</v>
+        <v>4.234</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>8</v>
@@ -1102,19 +1187,19 @@
     </row>
     <row r="44" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
       </c>
       <c r="C44" s="5">
-        <v>1.3819999999999999</v>
+        <v>6.2750000000000004</v>
       </c>
       <c r="D44" s="5">
-        <v>1.1870000000000001</v>
+        <v>5.452</v>
       </c>
       <c r="E44" s="5">
-        <v>1.611</v>
+        <v>7.2229999999999999</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>8</v>
@@ -1122,82 +1207,82 @@
     </row>
     <row r="45" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
       </c>
       <c r="C45" s="5">
-        <v>0.99399999999999999</v>
+        <v>9.9779999999999998</v>
       </c>
       <c r="D45" s="5">
-        <v>0.81299999999999994</v>
+        <v>8.1460000000000008</v>
       </c>
       <c r="E45" s="5">
-        <v>1.2150000000000001</v>
-      </c>
-      <c r="F45" s="6">
-        <v>0.95379999999999998</v>
+        <v>12.223000000000001</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B46" s="4">
         <v>1</v>
       </c>
       <c r="C46" s="5">
-        <v>0.94499999999999995</v>
+        <v>54.253</v>
       </c>
       <c r="D46" s="5">
-        <v>0.79300000000000004</v>
+        <v>43.404000000000003</v>
       </c>
       <c r="E46" s="5">
-        <v>1.125</v>
-      </c>
-      <c r="F46" s="6">
-        <v>0.52380000000000004</v>
+        <v>67.813000000000002</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B47" s="4">
         <v>1</v>
       </c>
       <c r="C47" s="5">
-        <v>1.1140000000000001</v>
+        <v>1.052</v>
       </c>
       <c r="D47" s="5">
-        <v>0.93400000000000005</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="E47" s="5">
-        <v>1.329</v>
+        <v>1.2509999999999999</v>
       </c>
       <c r="F47" s="6">
-        <v>0.23100000000000001</v>
+        <v>0.56479999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
       </c>
       <c r="C48" s="5">
-        <v>0.73099999999999998</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="D48" s="5">
-        <v>0.628</v>
+        <v>0.87</v>
       </c>
       <c r="E48" s="5">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>8</v>
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.85060000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -1240,19 +1325,19 @@
     </row>
     <row r="54" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B54" s="4">
         <v>1</v>
       </c>
       <c r="C54" s="5">
-        <v>2.1309999999999998</v>
+        <v>2.2690000000000001</v>
       </c>
       <c r="D54" s="5">
-        <v>1.756</v>
+        <v>1.8560000000000001</v>
       </c>
       <c r="E54" s="5">
-        <v>2.5859999999999999</v>
+        <v>2.774</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>8</v>
@@ -1266,13 +1351,13 @@
         <v>1</v>
       </c>
       <c r="C55" s="5">
-        <v>1.0249999999999999</v>
+        <v>1.016</v>
       </c>
       <c r="D55" s="5">
-        <v>1.0189999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="E55" s="5">
-        <v>1.0309999999999999</v>
+        <v>1.022</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>8</v>
@@ -1280,19 +1365,19 @@
     </row>
     <row r="56" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" s="4">
         <v>1</v>
       </c>
       <c r="C56" s="5">
-        <v>0.59899999999999998</v>
+        <v>2.202</v>
       </c>
       <c r="D56" s="5">
-        <v>0.504</v>
+        <v>1.865</v>
       </c>
       <c r="E56" s="5">
-        <v>0.71299999999999997</v>
+        <v>2.5990000000000002</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>8</v>
@@ -1300,19 +1385,19 @@
     </row>
     <row r="57" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
       </c>
       <c r="C57" s="5">
-        <v>10.715</v>
+        <v>3.6629999999999998</v>
       </c>
       <c r="D57" s="5">
-        <v>8.9169999999999998</v>
+        <v>3.17</v>
       </c>
       <c r="E57" s="5">
-        <v>12.875</v>
+        <v>4.234</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>8</v>
@@ -1320,19 +1405,19 @@
     </row>
     <row r="58" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B58" s="4">
         <v>1</v>
       </c>
       <c r="C58" s="5">
-        <v>1.3759999999999999</v>
+        <v>6.2489999999999997</v>
       </c>
       <c r="D58" s="5">
-        <v>1.181</v>
+        <v>5.4279999999999999</v>
       </c>
       <c r="E58" s="5">
-        <v>1.6040000000000001</v>
+        <v>7.194</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>8</v>
@@ -1340,99 +1425,99 @@
     </row>
     <row r="59" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B59" s="4">
         <v>1</v>
       </c>
       <c r="C59" s="5">
-        <v>0.99299999999999999</v>
+        <v>9.9550000000000001</v>
       </c>
       <c r="D59" s="5">
-        <v>0.81200000000000006</v>
+        <v>8.1259999999999994</v>
       </c>
       <c r="E59" s="5">
-        <v>1.214</v>
-      </c>
-      <c r="F59" s="6">
-        <v>0.94610000000000005</v>
+        <v>12.196999999999999</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B60" s="4">
         <v>1</v>
       </c>
       <c r="C60" s="5">
-        <v>0.95599999999999996</v>
+        <v>54.94</v>
       </c>
       <c r="D60" s="5">
-        <v>0.80300000000000005</v>
+        <v>43.911999999999999</v>
       </c>
       <c r="E60" s="5">
-        <v>1.139</v>
-      </c>
-      <c r="F60" s="6">
-        <v>0.61360000000000003</v>
+        <v>68.738</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B61" s="4">
         <v>1</v>
       </c>
       <c r="C61" s="5">
-        <v>1.0900000000000001</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="D61" s="5">
-        <v>0.91300000000000003</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E61" s="5">
-        <v>1.302</v>
+        <v>1.2310000000000001</v>
       </c>
       <c r="F61" s="6">
-        <v>0.33800000000000002</v>
+        <v>0.70179999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
       </c>
       <c r="C62" s="5">
-        <v>0.73399999999999999</v>
+        <v>1.018</v>
       </c>
       <c r="D62" s="5">
-        <v>0.63</v>
+        <v>0.873</v>
       </c>
       <c r="E62" s="5">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>8</v>
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0.81669999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
       </c>
       <c r="C63" s="5">
-        <v>1.3320000000000001</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="D63" s="5">
-        <v>1.2070000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E63" s="5">
-        <v>1.4690000000000001</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>8</v>
@@ -1441,7 +1526,7 @@
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="A52:F52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="A1:F1"/>
@@ -1461,7 +1546,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="A17:F17"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
